--- a/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/앰비션 7월 영상 카테고리.xlsx
+++ b/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/앰비션 7월 영상 카테고리.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,170 +97,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=LsWfFD1cvXw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139,724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>177,529</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>177,529</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>264,169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139,724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159,487</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159,487</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222,323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139,724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>318,974</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666,969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=RXgeNeyc7KE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LsWfFD1cvXw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=PjxelP1wljk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=M9RD43PwRxI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=pETc8832RgI</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139,724</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>177,529</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>177,529</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>264,169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139,724</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>159,487</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>159,487</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>222,323</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139,724</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>318,974</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666,969</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰비션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34만</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -435,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -612,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -623,7 +622,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,22 +668,22 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -694,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>9</v>
@@ -703,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -736,16 +735,16 @@
         <v>11</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -753,19 +752,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>10</v>
@@ -778,13 +777,13 @@
         <v>13</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -815,7 +814,7 @@
       <c r="K6" s="2"/>
       <c r="M6" s="6"/>
       <c r="Q6" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -826,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -848,16 +847,16 @@
         <v>14</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -876,16 +875,16 @@
         <v>15</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -904,16 +903,16 @@
         <v>16</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -932,16 +931,16 @@
         <v>17</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -957,19 +956,19 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="M11" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1101,8 +1100,12 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
     <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/앰비션 7월 영상 카테고리.xlsx
+++ b/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/앰비션 7월 영상 카테고리.xlsx
@@ -1,13 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\Study\Thesis\DBD 분석\맵 분석\3. 콜드윈드 농장(★)\3. 썩은 들판(★)\영상분석자료\모멘트 시트 및 정리\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="7-1" sheetId="2" r:id="rId2"/>
+    <sheet name="7-2" sheetId="3" r:id="rId3"/>
+    <sheet name="7-3" sheetId="4" r:id="rId4"/>
+    <sheet name="7-4" sheetId="5" r:id="rId5"/>
+    <sheet name="7-5" sheetId="6" r:id="rId6"/>
+    <sheet name="7-6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="156">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,13 +269,397 @@
   </si>
   <si>
     <t>34만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모멘트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼포먼스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔터테인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:50~2:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:20~1:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:20~2:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:00~4:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:25~7:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:20~3:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:40~4:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:45~6:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:20~7:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:05~8:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00~9:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00~10:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:45~2:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:30~2:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:40~4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:45~4:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:35~6:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:05~6:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:20~7:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:35~8:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:45~2:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:05~4:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:10~5:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:30~5:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:30~6:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:35~8:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:35~9:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:35~9:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:40~0:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:00~1:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:35~1:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:05~2:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:30~2:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:55~3:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:05~4:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:15~5:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:35~7:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:35~8:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:55~9:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:50~10:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:25~3:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:55~4:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:45~5:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:25~5:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:25~6:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:15~7:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:35~7:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:15~8:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:35~8:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:35~9:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00~10:25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -316,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +733,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -354,6 +752,2664 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,7 +3667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -622,7 +3678,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1108,4 +4164,3853 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BP16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BP2" s="7"/>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BP16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="W2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BP2" s="7"/>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>17</v>
+      </c>
+      <c r="O10">
+        <v>17</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="U16">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BP16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BP2" s="7"/>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>69</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="W8" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>16</v>
+      </c>
+      <c r="U10">
+        <v>15</v>
+      </c>
+      <c r="X10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="W13" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="W15" t="s">
+        <v>87</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>15</v>
+      </c>
+      <c r="U16">
+        <v>14</v>
+      </c>
+      <c r="X16">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BP16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BP2" s="7"/>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>69</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="W8" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>14</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>18</v>
+      </c>
+      <c r="U10">
+        <v>16</v>
+      </c>
+      <c r="X10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>87</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="U16">
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BP16"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AN3" sqref="AN3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BP2" s="7"/>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>89</v>
+      </c>
+      <c r="W3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="W7" t="s">
+        <v>69</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG7">
+        <v>3</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="W8" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD8">
+        <v>4</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9">
+        <v>4</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <v>9</v>
+      </c>
+      <c r="X10">
+        <v>17</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+      <c r="AD10">
+        <v>15</v>
+      </c>
+      <c r="AG10">
+        <v>15</v>
+      </c>
+      <c r="AJ10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12">
+        <v>5</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG12">
+        <v>2</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="W13" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD13">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA14">
+        <v>4</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD14">
+        <v>4</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG14">
+        <v>3</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>87</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG15">
+        <v>3</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="U16">
+        <v>8</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="AA16">
+        <v>16</v>
+      </c>
+      <c r="AD16">
+        <v>10</v>
+      </c>
+      <c r="AG16">
+        <v>10</v>
+      </c>
+      <c r="AJ16">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BP16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BP2" s="7"/>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>69</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="W8" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>16</v>
+      </c>
+      <c r="R10">
+        <v>14</v>
+      </c>
+      <c r="U10">
+        <v>17</v>
+      </c>
+      <c r="X10">
+        <v>15</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AD10">
+        <v>9</v>
+      </c>
+      <c r="AG10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD12">
+        <v>5</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="W13" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA13">
+        <v>3</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD13">
+        <v>4</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA14">
+        <v>3</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>87</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD15">
+        <v>3</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>14</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>15</v>
+      </c>
+      <c r="AA16">
+        <v>14</v>
+      </c>
+      <c r="AD16">
+        <v>14</v>
+      </c>
+      <c r="AG16">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>